--- a/tests/testthat/fixtures/ex2/tables/irt_poly.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/irt_poly.xlsx
@@ -190,34 +190,34 @@
     <t xml:space="preserve">step3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57 (0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.48 (0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86 (0.082)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44 (0.082)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.20 (0.092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24</t>
+    <t xml:space="preserve">1.67 (0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.56 (0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84 (0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26 (0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.96 (0.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
   </si>
 </sst>
 </file>
@@ -598,31 +598,31 @@
         <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E2" t="n">
-        <v>82.86</v>
+        <v>82.22</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.99</v>
+        <v>-1.96</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="J2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K2" t="n">
         <v>0.04</v>
       </c>
       <c r="L2" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -636,10 +636,10 @@
         <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E3" t="n">
-        <v>79.41</v>
+        <v>79.11</v>
       </c>
       <c r="F3" t="n">
         <v>-1.71</v>
@@ -651,13 +651,13 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="J3" t="n">
         <v>0.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L3" t="n">
         <v>1.08</v>
@@ -674,11 +674,11 @@
         <v>1500</v>
       </c>
       <c r="D4" t="n">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>-1.57</v>
+        <v>-1.56</v>
       </c>
       <c r="G4" t="n">
         <v>0.05</v>
@@ -687,7 +687,7 @@
         <v>0.88</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.69</v>
+        <v>-1.68</v>
       </c>
       <c r="J4" t="n">
         <v>0.38</v>
@@ -696,7 +696,7 @@
         <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -710,22 +710,22 @@
         <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E5" t="n">
-        <v>71.37</v>
+        <v>70.66</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.18</v>
+        <v>-1.14</v>
       </c>
       <c r="G5" t="n">
         <v>0.07</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I5" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J5" t="n">
         <v>0.34</v>
@@ -748,13 +748,13 @@
         <v>1500</v>
       </c>
       <c r="D6" t="n">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E6" t="n">
-        <v>68.16</v>
+        <v>67.32</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.97</v>
+        <v>-0.93</v>
       </c>
       <c r="G6" t="n">
         <v>0.06</v>
@@ -763,16 +763,16 @@
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="J6" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K6" t="n">
         <v>0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -786,22 +786,22 @@
         <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="E7" t="n">
-        <v>64.32</v>
+        <v>63.79</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="G7" t="n">
         <v>0.06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.59</v>
+        <v>-0.24</v>
       </c>
       <c r="J7" t="n">
         <v>0.38</v>
@@ -810,7 +810,7 @@
         <v>0.04</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -824,7 +824,7 @@
         <v>1500</v>
       </c>
       <c r="D8" t="n">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -834,19 +834,19 @@
         <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.62</v>
+        <v>-2.46</v>
       </c>
       <c r="J8" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -860,10 +860,10 @@
         <v>1500</v>
       </c>
       <c r="D9" t="n">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E9" t="n">
-        <v>53.18</v>
+        <v>53.26</v>
       </c>
       <c r="F9" t="n">
         <v>-0.16</v>
@@ -875,10 +875,10 @@
         <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K9" t="n">
         <v>0.05</v>
@@ -898,31 +898,31 @@
         <v>1500</v>
       </c>
       <c r="D10" t="n">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E10" t="n">
-        <v>52.69</v>
+        <v>52.45</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="G10" t="n">
         <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
       <c r="J10" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="11">
@@ -936,31 +936,31 @@
         <v>1500</v>
       </c>
       <c r="D11" t="n">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="E11" t="n">
-        <v>45.96</v>
+        <v>45.74</v>
       </c>
       <c r="F11" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G11" t="n">
         <v>0.06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.34</v>
+        <v>0.29</v>
       </c>
       <c r="J11" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K11" t="n">
         <v>0.04</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
@@ -974,31 +974,31 @@
         <v>1500</v>
       </c>
       <c r="D12" t="n">
-        <v>1331</v>
+        <v>1308</v>
       </c>
       <c r="E12" t="n">
-        <v>40.2</v>
+        <v>39.45</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="G12" t="n">
         <v>0.06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>1.05</v>
+        <v>0.74</v>
       </c>
       <c r="J12" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L12" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="13">
@@ -1012,31 +1012,31 @@
         <v>1500</v>
       </c>
       <c r="D13" t="n">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="E13" t="n">
-        <v>37.02</v>
+        <v>36.84</v>
       </c>
       <c r="F13" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="G13" t="n">
         <v>0.07</v>
       </c>
       <c r="H13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I13" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="J13" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14">
@@ -1050,31 +1050,31 @@
         <v>1500</v>
       </c>
       <c r="D14" t="n">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="E14" t="n">
-        <v>33.17</v>
+        <v>34.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G14" t="n">
         <v>0.07</v>
       </c>
       <c r="H14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I14" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="J14" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="K14" t="n">
         <v>0.05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15">
@@ -1088,11 +1088,11 @@
         <v>1500</v>
       </c>
       <c r="D15" t="n">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G15" t="n">
         <v>0.04</v>
@@ -1104,13 +1104,13 @@
         <v>-1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="K15" t="n">
         <v>0.07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="16">
@@ -1124,31 +1124,31 @@
         <v>1500</v>
       </c>
       <c r="D16" t="n">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E16" t="n">
-        <v>24.37</v>
+        <v>22.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H16" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I16" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="K16" t="n">
         <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="17">
@@ -1162,29 +1162,29 @@
         <v>1500</v>
       </c>
       <c r="D17" t="n">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G17" t="n">
         <v>0.03</v>
       </c>
       <c r="H17" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.29</v>
+        <v>-1.73</v>
       </c>
       <c r="J17" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="18">
@@ -1198,31 +1198,31 @@
         <v>1500</v>
       </c>
       <c r="D18" t="n">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="E18" t="n">
-        <v>20.99</v>
+        <v>21.52</v>
       </c>
       <c r="F18" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H18" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="I18" t="n">
-        <v>0.78</v>
+        <v>-0.36</v>
       </c>
       <c r="J18" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L18" t="n">
-        <v>0.96</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>26366</v>
+        <v>26064</v>
       </c>
       <c r="E2" t="n">
-        <v>26414</v>
+        <v>26112</v>
       </c>
       <c r="F2" t="n">
-        <v>26542</v>
+        <v>26240</v>
       </c>
       <c r="G2" t="n">
-        <v>0.759</v>
+        <v>0.766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.694</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="3">
@@ -1302,19 +1302,19 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>26249</v>
+        <v>25941</v>
       </c>
       <c r="E3" t="n">
-        <v>26329</v>
+        <v>26021</v>
       </c>
       <c r="F3" t="n">
-        <v>26542</v>
+        <v>26233</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767</v>
+        <v>0.774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.697</v>
+        <v>0.704</v>
       </c>
     </row>
   </sheetData>
